--- a/Souq/src/price/Souq/excel_51_brincos.xlsx
+++ b/Souq/src/price/Souq/excel_51_brincos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,2350 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BRINCO ANJA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-anja-02-09-02-856-035.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BRINCO ASHLEY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-ashley-02-09-02-857-035.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BRINCO CASSIANE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-cassiane-02-09-02-855-011.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BRINCO LORELEI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-lorelei-02-09-02-858-011.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BRINCO LORNA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-lorna-02-09-02-854-011.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BRINCO CORA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-cora-02-09-02-902-035.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BRINCO ROSALI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-rosali-02-09-02-901-010.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BRINCO SABINE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-sabine-02-09-02-897-011.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BRINCO SIMONETTA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-simonetta-02-09-02-837-011.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BRINCO DINORAH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dinorah-02-09-02-852-003.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BRINCO DINORAH</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dinorah-02-09-02-852-035.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BRINCO ANATÓLIA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-anatolia-02-09-06-082-011.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>248,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BRINCO ASHANTI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-ashanti-02-09-02-835-011.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BRINCO ASHIA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-ashia-02-09-02-836-035.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BRINCO BRIDA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-brida-02-09-02-895-011.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BRINCO COQUEIRAL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-coqueiral-02-09-02-851-006.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BRINCO EDIE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-edie-02-09-02-876-011.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BRINCO EDIE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-edie-02-09-02-876-017.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BRINCO ELZA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-elza-02-09-02-861-011.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BRINCO ELZA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-elza-02-09-02-861-017.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BRINCO EMIKA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-emika-novo-02-09-02-832-011.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BRINCO GALE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-gale-02-09-02-875-011.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BRINCO GALE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-gale-02-09-02-875-017.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BRINCO HARUKA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-haruka-02-09-02-831-011.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BRINCO HEDY</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-hedy-02-09-02-893-011.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>BRINCO JAYNE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-jayne-02-09-02-834-017.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BRINCO KRISTELL</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-kristell-02-09-02-896-022.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BRINCO LITA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-lita-02-09-02-877-011.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BRINCO LUZ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-luz-02-09-02-898-011.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BRINCO LYRA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-lyra-02-09-02-850-029.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BRINCO NARA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-nara-02-09-02-860-017.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BRINCO NISE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-nise-02-09-02-899-011.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BRINCO PIAF</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-piaf-02-09-02-900-011.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BRINCO POLIANA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-poliana-02-09-02-894-011.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>BRINCO STELA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-stela-02-09-02-833-011.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>BRINCO JOSIE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-daria-02-09-02-765-035.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BRINCO MARGARETES</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-josie-02-09-02-767-011.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BRINCO PISCIS</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dietrich-02-09-02-771-004.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>BRINCO YANDRA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-yandra-02-09-02-796-054.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>BRINCO KEFERA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-celestia-02-09-02-803-004.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BRINCO AMIRA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-amira-02-09-02-642-011.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>BRINCO BOULDERS MARR</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-boulders-marr-02-09-02-434-008.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BRINCO ARMACAO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-armacao-02-09-02-535-004.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BRINCO BROOKLYN PRET</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-brooklyn-pret-02-09-02-462-002.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BRINCO BUZIOS</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-buzios-02-09-02-562-007.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>BRINCO BUZIOS</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-buzios-02-09-02-562-006.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>BRINCO CALABASSA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-calabassa-02-09-02-522-006.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BRINCO CEDRO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-cedro-02-09-02-554-006.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BRINCO CEDRO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-cedro-02-09-02-554-007.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BRINCO DYANA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dyana-02-09-02-605-008.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BRINCO DYANA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dyana-02-09-02-605-004.html</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>BRINCO ESTHER</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-esther-02-09-02-625-028.html</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>BRINCO ESTHER</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-esther-02-09-02-625-029.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BRINCO FEITICEIRA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-feiticeira-02-09-02-529-008.html</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>BRINCO GAROPABA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-garopaba-02-09-02-551-001.html</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>BRINCO INDAIA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-indaia-02-09-02-531-006.html</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>BRINCO INDAIA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-indaia-02-09-02-531-002.html</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>BRINCO IRACEMA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-iracema-02-09-02-538-011.html</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>BRINCO JUDITH</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-judith-02-09-02-624-011.html</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>BRINCO JULIETE</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-juliete-02-09-02-530-005.html</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>BRINCO KECIL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-kecil-marrom-02-09-02-427-008.html</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BRINCO NEREIDA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-nereida-02-09-02-612-011.html</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>BRINCO RUTH</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-ruth-02-09-02-627-011.html</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>BRINCO SAMARA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-samara-02-09-02-626-002.html</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BRINCO SAUNDERS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-saunders-02-09-02-565-017.html</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>BRINCO SHERAZARDE</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-sherazarde-02-09-02-648-008.html</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>BRINCO SOHO TAM</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-soho-tam-02-09-02-460-007.html</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>38,00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>BRINCO TAILANDIA MAR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-tailandia-mar-02-09-02-431-008.html</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>BRINCO TALAMANCAS</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-talamancas-02-09-02-527-017.html</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BRINCO UDAIPUR</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-udaipur-02-09-02-589-008.html</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>BRINCO UDAIPUR</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-udaipur-02-09-02-589-012.html</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BRINCOS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/brincos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BRINCO WAIKIKI</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-waikiki-02-09-02-543-011.html</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
